--- a/ig/ch-emed-epr/CodeSystem-ch-emed-epr-paper-format-code-system.xlsx
+++ b/ig/ch-emed-epr/CodeSystem-ch-emed-epr-paper-format-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Possible paper formats that can be delivered by a CH EMED EPR service rendering PMLC original representations.</t>
+    <t>Possible paper formats that can be delivered by a CH EMED EPR service rendering original representations.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,6 +105,9 @@
     <t>Hierarchy</t>
   </si>
   <si>
+    <t>is-a</t>
+  </si>
+  <si>
     <t>Compositional</t>
   </si>
   <si>
@@ -123,40 +126,67 @@
     <t>Count</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cara-pmp</t>
+  </si>
+  <si>
+    <t>CARA PMP</t>
+  </si>
+  <si>
+    <t>CARA platform own format for PMP (eMedication service) project.</t>
+  </si>
+  <si>
+    <t>emediplan</t>
+  </si>
+  <si>
+    <t>eMediplan</t>
+  </si>
+  <si>
+    <t>Paper format defined by eMediplan.</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>cara-pmp</t>
-  </si>
-  <si>
-    <t>CARA PMP</t>
-  </si>
-  <si>
-    <t>CARA platform own format for PMP (eMedication service) project.</t>
-  </si>
-  <si>
-    <t>emediplan</t>
-  </si>
-  <si>
-    <t>eMediplan</t>
-  </si>
-  <si>
-    <t>Paper format defined by eMediplan.</t>
+    <t>chmed16a</t>
+  </si>
+  <si>
+    <t>CHMED16A</t>
+  </si>
+  <si>
+    <t>Paper format for CHMED16A eMediplan.</t>
+  </si>
+  <si>
+    <t>chmed23a</t>
+  </si>
+  <si>
+    <t>CHMED23A</t>
+  </si>
+  <si>
+    <t>Paper format for CHMED23A eMediplan.</t>
+  </si>
+  <si>
+    <t>ePrescription</t>
+  </si>
+  <si>
+    <t>Paper format for Swiss ePrescription.</t>
   </si>
 </sst>
 </file>
@@ -428,40 +458,42 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,44 +511,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
